--- a/results/pvalue_SIDER_rare_enzyme_AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_enzyme_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.492</t>
+          <t>3.872</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.077</t>
+          <t>3.621</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.829</t>
+          <t>4.218</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.299</t>
+          <t>4.411</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.453</t>
+          <t>20.515</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18.126</t>
+          <t>18.145</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>39.409</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>43.985</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>12.086</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
